--- a/database/words.xlsx
+++ b/database/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\_English_Cards\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E20A7-D834-4E54-98FE-CE0230CDD2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A09E7-5338-4846-92F4-34AE343E7DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="708">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -75,15 +75,9 @@
     <t>Thank you.</t>
   </si>
   <si>
-    <t>Nemáš zac.</t>
-  </si>
-  <si>
     <t>You're welcome.</t>
   </si>
   <si>
-    <t>Prominte.</t>
-  </si>
-  <si>
     <t>Excuse me.</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>No problem.</t>
   </si>
   <si>
-    <t>Potrebuji...</t>
-  </si>
-  <si>
     <t>I need...</t>
   </si>
   <si>
@@ -165,15 +156,9 @@
     <t>I'm tired.</t>
   </si>
   <si>
-    <t>Je mi špatne.</t>
-  </si>
-  <si>
     <t>I'm sick.</t>
   </si>
   <si>
-    <t>Mám se dobre, dekuji.</t>
-  </si>
-  <si>
     <t>I'm fine, thank you.</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>How do you feel?</t>
   </si>
   <si>
-    <t>Cítím se dobre.</t>
-  </si>
-  <si>
     <t>I feel good.</t>
   </si>
   <si>
@@ -255,9 +237,6 @@
     <t>Where are you from?</t>
   </si>
   <si>
-    <t>jsem z Londýna</t>
-  </si>
-  <si>
     <t>I am from London</t>
   </si>
   <si>
@@ -273,9 +252,6 @@
     <t>I speak a little English.</t>
   </si>
   <si>
-    <t>Neumím dobre anglicky.</t>
-  </si>
-  <si>
     <t>I don't speak English well.</t>
   </si>
   <si>
@@ -291,9 +267,6 @@
     <t>I am a student.</t>
   </si>
   <si>
-    <t>Pracuji jako ucitel.</t>
-  </si>
-  <si>
     <t>I work as a teacher.</t>
   </si>
   <si>
@@ -309,9 +282,6 @@
     <t>I don't like it.</t>
   </si>
   <si>
-    <t>co je to?</t>
-  </si>
-  <si>
     <t>What's this?</t>
   </si>
   <si>
@@ -339,9 +309,6 @@
     <t>How are you doing?</t>
   </si>
   <si>
-    <t>Mám se dobre, dekuji. a ty?</t>
-  </si>
-  <si>
     <t>I'm fine, thank you. And you?</t>
   </si>
   <si>
@@ -378,15 +345,9 @@
     <t>Can you help me, please?</t>
   </si>
   <si>
-    <t>Ano, samozrejme.</t>
-  </si>
-  <si>
     <t>Yes, of course.</t>
   </si>
   <si>
-    <t>Ne, omlouvám se. Jsem zaneprázdnen.</t>
-  </si>
-  <si>
     <t>No, I'm sorry. I'm busy.</t>
   </si>
   <si>
@@ -408,15 +369,9 @@
     <t>What time is it?</t>
   </si>
   <si>
-    <t>Jsou tri hodiny.</t>
-  </si>
-  <si>
     <t>It's three o'clock.</t>
   </si>
   <si>
-    <t>Pojdme neco sníst.</t>
-  </si>
-  <si>
     <t>Let's eat something.</t>
   </si>
   <si>
@@ -432,9 +387,6 @@
     <t>Yes, please.</t>
   </si>
   <si>
-    <t>Ne, dekuji.</t>
-  </si>
-  <si>
     <t>No, thank you.</t>
   </si>
   <si>
@@ -444,9 +396,6 @@
     <t>How much is it?</t>
   </si>
   <si>
-    <t>Je to deset dolaru.</t>
-  </si>
-  <si>
     <t>It's ten dollars.</t>
   </si>
   <si>
@@ -462,9 +411,6 @@
     <t>Sorry, only cash.</t>
   </si>
   <si>
-    <t>Prominte, kde je nejbližší banka?</t>
-  </si>
-  <si>
     <t>Excuse me, where's the nearest bank?</t>
   </si>
   <si>
@@ -474,9 +420,6 @@
     <t>It's down the street on the left.</t>
   </si>
   <si>
-    <t>Mužeš to prosím zopakovat?</t>
-  </si>
-  <si>
     <t>Can you repeat that, please?</t>
   </si>
   <si>
@@ -510,27 +453,15 @@
     <t>Here you are.</t>
   </si>
   <si>
-    <t>Dekuji mnohokrát.</t>
-  </si>
-  <si>
     <t>Thank you very much.</t>
   </si>
   <si>
-    <t>To je v porádku.</t>
-  </si>
-  <si>
     <t>That's okay.</t>
   </si>
   <si>
-    <t>Jaké je pocasí?</t>
-  </si>
-  <si>
     <t>What's the weather like?</t>
   </si>
   <si>
-    <t>Je slunecno.</t>
-  </si>
-  <si>
     <t>It's sunny.</t>
   </si>
   <si>
@@ -543,12 +474,6 @@
     <t>What are you doing?</t>
   </si>
   <si>
-    <t>Ctu knihu.</t>
-  </si>
-  <si>
-    <t>I'm reading a book.</t>
-  </si>
-  <si>
     <t>Dívám se na televizi.</t>
   </si>
   <si>
@@ -561,9 +486,6 @@
     <t>I'm going to the store.</t>
   </si>
   <si>
-    <t>Chcete prijet?</t>
-  </si>
-  <si>
     <t>Do you want to come?</t>
   </si>
   <si>
@@ -573,15 +495,9 @@
     <t>Yes, I'd love to.</t>
   </si>
   <si>
-    <t>Ne, nemužu.</t>
-  </si>
-  <si>
     <t>No, I can't.</t>
   </si>
   <si>
-    <t>Co jsi delal vcera?</t>
-  </si>
-  <si>
     <t>What did you do yesterday?</t>
   </si>
   <si>
@@ -591,9 +507,6 @@
     <t>I went to the beach.</t>
   </si>
   <si>
-    <t>Zustal jsem doma.</t>
-  </si>
-  <si>
     <t>I stayed home.</t>
   </si>
   <si>
@@ -603,51 +516,27 @@
     <t>When is your birthday?</t>
   </si>
   <si>
-    <t>Je to 4. cervence.</t>
-  </si>
-  <si>
     <t>It's on July 4th.</t>
   </si>
   <si>
-    <t>Umíš rídit?</t>
-  </si>
-  <si>
     <t>Can you drive?</t>
   </si>
   <si>
-    <t>Ano, mám ridicák.</t>
-  </si>
-  <si>
     <t>Yes, I have a driver's license.</t>
   </si>
   <si>
-    <t>Ne, neumím rídit.</t>
-  </si>
-  <si>
     <t>No, I can't drive.</t>
   </si>
   <si>
-    <t>Ucím se rídit.</t>
-  </si>
-  <si>
     <t>I'm learning to drive.</t>
   </si>
   <si>
-    <t>Kde ses naucil anglicky?</t>
-  </si>
-  <si>
     <t>Where did you learn English?</t>
   </si>
   <si>
-    <t>Naucil jsem se to ve škole.</t>
-  </si>
-  <si>
     <t>I learned it at school.</t>
   </si>
   <si>
-    <t>Ucím se to online.</t>
-  </si>
-  <si>
     <t>I'm learning it online.</t>
   </si>
   <si>
@@ -669,9 +558,6 @@
     <t>I don't like fish.</t>
   </si>
   <si>
-    <t>Byl jsi nekdy v Londýne?</t>
-  </si>
-  <si>
     <t>Have you ever been to London?</t>
   </si>
   <si>
@@ -681,9 +567,6 @@
     <t>Yes, I visited last year.</t>
   </si>
   <si>
-    <t>Ne, ale chtel bych jít.</t>
-  </si>
-  <si>
     <t>No, but I'd like to go.</t>
   </si>
   <si>
@@ -693,15 +576,9 @@
     <t>I'm going to bed.</t>
   </si>
   <si>
-    <t>Dobre se vyspi.</t>
-  </si>
-  <si>
     <t>Sleep well.</t>
   </si>
   <si>
-    <t>Mej hezký den.</t>
-  </si>
-  <si>
     <t>Have a good day.</t>
   </si>
   <si>
@@ -717,15 +594,9 @@
     <t>What's your phone number?</t>
   </si>
   <si>
-    <t>Moje císlo je ...</t>
-  </si>
-  <si>
     <t>My number is ...</t>
   </si>
   <si>
-    <t>Mužu ti zavolat?</t>
-  </si>
-  <si>
     <t>Can I call you?</t>
   </si>
   <si>
@@ -735,15 +606,9 @@
     <t>Yes, call me anytime.</t>
   </si>
   <si>
-    <t>Promin, zmeškal jsem tvuj hovor.</t>
-  </si>
-  <si>
     <t>Sorry, I missed your call.</t>
   </si>
   <si>
-    <t>Mužeme se sejít zítra?</t>
-  </si>
-  <si>
     <t>Can we meet tomorrow?</t>
   </si>
   <si>
@@ -753,15 +618,9 @@
     <t>Where shall we meet?</t>
   </si>
   <si>
-    <t>Sejdeme se v kavárne.</t>
-  </si>
-  <si>
     <t>Let's meet at the cafe.</t>
   </si>
   <si>
-    <t>Jaký cas?</t>
-  </si>
-  <si>
     <t>What time?</t>
   </si>
   <si>
@@ -777,27 +636,15 @@
     <t>Is it far?</t>
   </si>
   <si>
-    <t>Odbocit vlevo.</t>
-  </si>
-  <si>
     <t>Turn left.</t>
   </si>
   <si>
-    <t>Odbocit vpravo.</t>
-  </si>
-  <si>
     <t>Turn right.</t>
   </si>
   <si>
-    <t>Jdete rovne.</t>
-  </si>
-  <si>
     <t>Go straight ahead.</t>
   </si>
   <si>
-    <t>Na první odbocte doleva.</t>
-  </si>
-  <si>
     <t>Take the first left.</t>
   </si>
   <si>
@@ -849,9 +696,6 @@
     <t>What's the password?</t>
   </si>
   <si>
-    <t>Muj telefon je mrtvý.</t>
-  </si>
-  <si>
     <t>My phone is dead.</t>
   </si>
   <si>
@@ -861,9 +705,6 @@
     <t>Can I charge my phone here?</t>
   </si>
   <si>
-    <t>Potrebuji lékare.</t>
-  </si>
-  <si>
     <t>I need a doctor.</t>
   </si>
   <si>
@@ -876,21 +717,12 @@
     <t>I feel dizzy.</t>
   </si>
   <si>
-    <t>Bolí me hlava.</t>
-  </si>
-  <si>
     <t>I have a headache.</t>
   </si>
   <si>
-    <t>Mám bolesti bricha.</t>
-  </si>
-  <si>
     <t>I have a stomachache.</t>
   </si>
   <si>
-    <t>Potrebuji lékárnu.</t>
-  </si>
-  <si>
     <t>I need a pharmacy.</t>
   </si>
   <si>
@@ -906,27 +738,15 @@
     <t>I lost my bag.</t>
   </si>
   <si>
-    <t>Mužete zavolat policii?</t>
-  </si>
-  <si>
     <t>Can you call the police?</t>
   </si>
   <si>
-    <t>Potrebuji pomoci.</t>
-  </si>
-  <si>
     <t>I need help.</t>
   </si>
   <si>
-    <t>Hledám svého prítele.</t>
-  </si>
-  <si>
     <t>I'm looking for my friend.</t>
   </si>
   <si>
-    <t>Videl jsi tuto osobu?</t>
-  </si>
-  <si>
     <t>Have you seen this person?</t>
   </si>
   <si>
@@ -936,15 +756,9 @@
     <t>I'm lost.</t>
   </si>
   <si>
-    <t>Mužete mi to ukázat na mape?</t>
-  </si>
-  <si>
     <t>Can you show me on the map?</t>
   </si>
   <si>
-    <t>Potrebuji pokyny.</t>
-  </si>
-  <si>
     <t>I need directions.</t>
   </si>
   <si>
@@ -954,9 +768,6 @@
     <t>What's the date today?</t>
   </si>
   <si>
-    <t>kolik je hodin?</t>
-  </si>
-  <si>
     <t>What's the time?</t>
   </si>
   <si>
@@ -966,69 +777,33 @@
     <t>It's early.</t>
   </si>
   <si>
-    <t>Už je pozde.</t>
-  </si>
-  <si>
     <t>It's late.</t>
   </si>
   <si>
-    <t>Jsem vcas.</t>
-  </si>
-  <si>
     <t>I'm on time.</t>
   </si>
   <si>
-    <t>Jsem brzy.</t>
-  </si>
-  <si>
     <t>I'm early.</t>
   </si>
   <si>
-    <t>Jdu pozde.</t>
-  </si>
-  <si>
     <t>I'm late.</t>
   </si>
   <si>
-    <t>Mužeme preplánovat?</t>
-  </si>
-  <si>
     <t>Can we reschedule?</t>
   </si>
   <si>
-    <t>Potrebuji zrušit.</t>
-  </si>
-  <si>
-    <t>I need to cancel.</t>
-  </si>
-  <si>
-    <t>V pondelí jsem k dispozici.</t>
-  </si>
-  <si>
     <t>I'm available on Monday.</t>
   </si>
   <si>
-    <t>Jaký cas vám vyhovuje?</t>
-  </si>
-  <si>
     <t>What time works for you?</t>
   </si>
   <si>
-    <t>To mi funguje.</t>
-  </si>
-  <si>
     <t>That works for me.</t>
   </si>
   <si>
-    <t>Pak jsem zaneprázdnen.</t>
-  </si>
-  <si>
     <t>I'm busy then.</t>
   </si>
   <si>
-    <t>Mohu vzít prítele?</t>
-  </si>
-  <si>
     <t>Can I bring a friend?</t>
   </si>
   <si>
@@ -1044,9 +819,6 @@
     <t>Where are you?</t>
   </si>
   <si>
-    <t>Jsem na ceste.</t>
-  </si>
-  <si>
     <t>I'm on my way.</t>
   </si>
   <si>
@@ -1056,21 +828,12 @@
     <t>I'll be there in 5 minutes.</t>
   </si>
   <si>
-    <t>Promin mám zpoždení.</t>
-  </si>
-  <si>
     <t>Sorry, I'm late.</t>
   </si>
   <si>
-    <t>Mel jsi dobrý výlet?</t>
-  </si>
-  <si>
     <t>Did you have a good trip?</t>
   </si>
   <si>
-    <t>Ano, bylo to skvelé.</t>
-  </si>
-  <si>
     <t>Yes, it was great.</t>
   </si>
   <si>
@@ -1086,15 +849,9 @@
     <t>Welcome back!</t>
   </si>
   <si>
-    <t>Mužete mi to napsat?</t>
-  </si>
-  <si>
     <t>Can you write it down for me?</t>
   </si>
   <si>
-    <t>necítím se dobre.</t>
-  </si>
-  <si>
     <t>I don't feel well.</t>
   </si>
   <si>
@@ -1110,15 +867,9 @@
     <t>I don't think that's a good idea.</t>
   </si>
   <si>
-    <t>Mužeš mi o tom ríct víc?</t>
-  </si>
-  <si>
     <t>Could you tell me more about it?</t>
   </si>
   <si>
-    <t>Rád bych si zarezervoval stul pro dva.</t>
-  </si>
-  <si>
     <t>I'd like to book a table for two.</t>
   </si>
   <si>
@@ -1128,9 +879,6 @@
     <t>It's the first of May.</t>
   </si>
   <si>
-    <t>Mužu to zkusit?</t>
-  </si>
-  <si>
     <t>Can I try this on?</t>
   </si>
   <si>
@@ -1158,21 +906,12 @@
     <t>Good morning!</t>
   </si>
   <si>
-    <t>Mej krásný zbytek dne!</t>
-  </si>
-  <si>
     <t>Have a great day!</t>
   </si>
   <si>
-    <t>Co se deje?</t>
-  </si>
-  <si>
     <t>What's up?</t>
   </si>
   <si>
-    <t>Mohu ti s necím pomoci?</t>
-  </si>
-  <si>
     <t>Can I help you with anything?</t>
   </si>
   <si>
@@ -1191,9 +930,6 @@
     <t>Congratulations!</t>
   </si>
   <si>
-    <t>To zní skvele.</t>
-  </si>
-  <si>
     <t>That sounds great.</t>
   </si>
   <si>
@@ -2146,6 +1882,273 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Nemáš zač.</t>
+  </si>
+  <si>
+    <t>Promiňte.</t>
+  </si>
+  <si>
+    <t>Potřebuji...</t>
+  </si>
+  <si>
+    <t>Je mi špatně.</t>
+  </si>
+  <si>
+    <t>Mám se dobře, děkuji.</t>
+  </si>
+  <si>
+    <t>Cítím se dobře.</t>
+  </si>
+  <si>
+    <t>Cítím se špatně.</t>
+  </si>
+  <si>
+    <t>Jsem z Londýna.</t>
+  </si>
+  <si>
+    <t>Neumím dobře anglicky.</t>
+  </si>
+  <si>
+    <t>Co děláš?</t>
+  </si>
+  <si>
+    <t>Pracuji jako učitel.</t>
+  </si>
+  <si>
+    <t>Co je to?</t>
+  </si>
+  <si>
+    <t>Mám se dobře, děkuji. A ty?</t>
+  </si>
+  <si>
+    <t>Ano, samozřejmě.</t>
+  </si>
+  <si>
+    <t>Ne, omlouvám se. Jsem zaneprázdněn.</t>
+  </si>
+  <si>
+    <t>Jsou tři hodiny.</t>
+  </si>
+  <si>
+    <t>Pojďme něco sníst.</t>
+  </si>
+  <si>
+    <t>Ne, děkuji.</t>
+  </si>
+  <si>
+    <t>Je to deset dolarů.</t>
+  </si>
+  <si>
+    <t>Promiňte, kde je nejbližší banka?</t>
+  </si>
+  <si>
+    <t>Můžeš to prosím zopakovat?</t>
+  </si>
+  <si>
+    <t>Děkuji mnohokrát.</t>
+  </si>
+  <si>
+    <t>To je v pořádku.</t>
+  </si>
+  <si>
+    <t>Jaké je počasí?</t>
+  </si>
+  <si>
+    <t>Je slunečno.</t>
+  </si>
+  <si>
+    <t>Čtu knihu.</t>
+  </si>
+  <si>
+    <t>I´m reading a book.</t>
+  </si>
+  <si>
+    <t>Chcete přijet?</t>
+  </si>
+  <si>
+    <t>Ne, nemůžu.</t>
+  </si>
+  <si>
+    <t>Co jsi dělal včera?</t>
+  </si>
+  <si>
+    <t>Zůstal jsem doma.</t>
+  </si>
+  <si>
+    <t>Je to 4. července.</t>
+  </si>
+  <si>
+    <t>Umíš řídit?</t>
+  </si>
+  <si>
+    <t>Ano, mám řidičák.</t>
+  </si>
+  <si>
+    <t>Ne, neumím řídit.</t>
+  </si>
+  <si>
+    <t>Učím se řídit.</t>
+  </si>
+  <si>
+    <t>Kde ses naučil anglicky?</t>
+  </si>
+  <si>
+    <t>Naučil jsem se to ve škole.</t>
+  </si>
+  <si>
+    <t>Učím se to online.</t>
+  </si>
+  <si>
+    <t>Byl jsi někdy v Londýne?</t>
+  </si>
+  <si>
+    <t>Ne, ale chtěl bych jít.</t>
+  </si>
+  <si>
+    <t>Dobře se vyspi.</t>
+  </si>
+  <si>
+    <t>Měj hezký den.</t>
+  </si>
+  <si>
+    <t>Moje číslo je ...</t>
+  </si>
+  <si>
+    <t>Můžu ti zavolat?</t>
+  </si>
+  <si>
+    <t>Promiň, zmeškal jsem tvůj hovor.</t>
+  </si>
+  <si>
+    <t>Můžeme se sejít zítra?</t>
+  </si>
+  <si>
+    <t>Sejdeme se v kavárně.</t>
+  </si>
+  <si>
+    <t>Jaký čas?</t>
+  </si>
+  <si>
+    <t>Odbočit vlevo.</t>
+  </si>
+  <si>
+    <t>Odbočit vpravo.</t>
+  </si>
+  <si>
+    <t>Jděte rovně.</t>
+  </si>
+  <si>
+    <t>Na první odbočte doleva.</t>
+  </si>
+  <si>
+    <t>Můj telefon je mrtvý.</t>
+  </si>
+  <si>
+    <t>Potřebuji lékare.</t>
+  </si>
+  <si>
+    <t>Bolí mě hlava.</t>
+  </si>
+  <si>
+    <t>Mám bolesti břicha.</t>
+  </si>
+  <si>
+    <t>Potřebuji lékárnu.</t>
+  </si>
+  <si>
+    <t>Můžete zavolat policii?</t>
+  </si>
+  <si>
+    <t>Potřebuji pomoci.</t>
+  </si>
+  <si>
+    <t>Hledám svého přítele.</t>
+  </si>
+  <si>
+    <t>Viděl jsi tuto osobu?</t>
+  </si>
+  <si>
+    <t>Můžete mi to ukázat na mapě?</t>
+  </si>
+  <si>
+    <t>Potřebuji pokyny.</t>
+  </si>
+  <si>
+    <t>Už je pozdě.</t>
+  </si>
+  <si>
+    <t>Jsem tu včas.</t>
+  </si>
+  <si>
+    <t>Jsem tu brzy.</t>
+  </si>
+  <si>
+    <t>Jdu pozdě.</t>
+  </si>
+  <si>
+    <t>Mužeme to přeplánovat?</t>
+  </si>
+  <si>
+    <t>Potřebuji zrušit…</t>
+  </si>
+  <si>
+    <t>I need to cancel…</t>
+  </si>
+  <si>
+    <t>V pondělí jsem k dispozici.</t>
+  </si>
+  <si>
+    <t>Jaký čas vám vyhovuje?</t>
+  </si>
+  <si>
+    <t>To se mi hodí. (V tento čas se mi to hodí)</t>
+  </si>
+  <si>
+    <t>Pak jsem zaneprázdněn.</t>
+  </si>
+  <si>
+    <t>Mohu vzít přítele?</t>
+  </si>
+  <si>
+    <t>Jsem na cestě.</t>
+  </si>
+  <si>
+    <t>Promiň mám zpoždení.</t>
+  </si>
+  <si>
+    <t>Měl jsi dobrý výlet?</t>
+  </si>
+  <si>
+    <t>Ano, bylo to skvělé.</t>
+  </si>
+  <si>
+    <t>Můžete mi to napsat?</t>
+  </si>
+  <si>
+    <t>Necítím se dobře.</t>
+  </si>
+  <si>
+    <t>Můžeš mi o tom říct víc?</t>
+  </si>
+  <si>
+    <t>Rád bych si zarezervoval stůl pro dva.</t>
+  </si>
+  <si>
+    <t>Můžu to zkusit?</t>
+  </si>
+  <si>
+    <t>Měj krásný zbytek dne!</t>
+  </si>
+  <si>
+    <t>Co se děje?</t>
+  </si>
+  <si>
+    <t>Mohu ti s něčím pomoci?</t>
+  </si>
+  <si>
+    <t>To zní skvěle.</t>
   </si>
 </sst>
 </file>
@@ -2465,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>706</v>
+        <v>618</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2568,10 +2571,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2579,10 +2582,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>620</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2590,10 +2593,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,10 +2604,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,10 +2615,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>621</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2623,10 +2626,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,10 +2637,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,10 +2648,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,10 +2670,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,10 +2681,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>702</v>
+        <v>614</v>
       </c>
       <c r="C19" t="s">
-        <v>703</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,10 +2692,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,10 +2703,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,10 +2714,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,10 +2725,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,10 +2736,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,10 +2747,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>622</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,10 +2758,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,10 +2769,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,10 +2780,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>624</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2788,10 +2791,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>625</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,10 +2813,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2821,10 +2824,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,10 +2835,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>704</v>
+        <v>616</v>
       </c>
       <c r="C33" t="s">
-        <v>705</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,10 +2846,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,10 +2857,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,10 +2868,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,10 +2879,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,10 +2890,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,10 +2901,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,10 +2912,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,10 +2923,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>626</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,10 +2934,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,10 +2945,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,10 +2956,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,10 +2967,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,10 +2978,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,10 +2989,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>629</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,10 +3000,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,10 +3011,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,10 +3022,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>630</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,10 +3033,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,10 +3044,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,10 +3055,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,10 +3066,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,10 +3077,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>631</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,10 +3088,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,10 +3099,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,10 +3110,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,10 +3121,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,10 +3132,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>629</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,10 +3143,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,10 +3154,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,10 +3165,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>632</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,10 +3176,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>633</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,10 +3187,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,10 +3198,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,10 +3209,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,10 +3220,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>634</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,10 +3231,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>635</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3239,10 +3242,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,10 +3253,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,10 +3264,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>636</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3272,10 +3275,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,10 +3286,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>637</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,10 +3297,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,10 +3308,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,10 +3319,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>638</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3327,10 +3330,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3338,10 +3341,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>639</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,10 +3352,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,10 +3363,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,10 +3374,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3382,10 +3385,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,10 +3396,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3404,10 +3407,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>640</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,10 +3418,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>641</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,10 +3429,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>642</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3437,10 +3440,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>643</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3448,10 +3451,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,10 +3462,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,10 +3473,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>644</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,10 +3484,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3492,10 +3495,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,10 +3506,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>646</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,10 +3517,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3525,10 +3528,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,10 +3539,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>648</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,10 +3550,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,10 +3561,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>649</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,10 +3572,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,10 +3583,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>650</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,10 +3594,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>651</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3602,10 +3605,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>652</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,10 +3616,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>653</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,10 +3627,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>654</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3635,10 +3638,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>655</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3646,10 +3649,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>656</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,10 +3660,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>657</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,10 +3671,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3679,10 +3682,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3690,10 +3693,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3701,10 +3704,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>658</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3712,10 +3715,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,10 +3726,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>659</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3734,10 +3737,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3745,10 +3748,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>660</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,10 +3759,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>661</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3767,10 +3770,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,10 +3781,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3789,10 +3792,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>662</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,10 +3803,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>232</v>
+        <v>663</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,10 +3814,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3822,10 +3825,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>664</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3833,10 +3836,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>665</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,10 +3847,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3855,10 +3858,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>666</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,10 +3869,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>667</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3877,10 +3880,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3888,10 +3891,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,10 +3902,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>668</v>
       </c>
       <c r="C130" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3910,10 +3913,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>669</v>
       </c>
       <c r="C131" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3921,10 +3924,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>670</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3932,10 +3935,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>671</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3943,10 +3946,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3954,10 +3957,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="C135" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3965,10 +3968,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3976,10 +3979,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3987,10 +3990,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C138" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3998,10 +4001,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,10 +4012,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4020,10 +4023,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4031,10 +4034,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>672</v>
       </c>
       <c r="C142" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4042,10 +4045,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4053,10 +4056,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>673</v>
       </c>
       <c r="C144" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4064,10 +4067,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4075,10 +4078,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>46</v>
+        <v>622</v>
       </c>
       <c r="C146" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4086,10 +4089,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>674</v>
       </c>
       <c r="C147" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4097,10 +4100,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>675</v>
       </c>
       <c r="C148" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4108,10 +4111,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>676</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4119,10 +4122,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4130,10 +4133,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="C151" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4141,10 +4144,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>677</v>
       </c>
       <c r="C152" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4152,10 +4155,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>678</v>
       </c>
       <c r="C153" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4163,10 +4166,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>679</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4174,10 +4177,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>680</v>
       </c>
       <c r="C155" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4185,10 +4188,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,10 +4199,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>681</v>
       </c>
       <c r="C157" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4207,10 +4210,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>682</v>
       </c>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,10 +4221,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,10 +4232,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="C160" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,10 +4243,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,10 +4254,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>683</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,10 +4265,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>315</v>
+        <v>684</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,10 +4276,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>317</v>
+        <v>685</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,10 +4287,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>686</v>
       </c>
       <c r="C165" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,10 +4298,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>321</v>
+        <v>687</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,10 +4309,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>688</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>689</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,10 +4320,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>325</v>
+        <v>690</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,10 +4331,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>327</v>
+        <v>691</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,10 +4342,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>329</v>
+        <v>692</v>
       </c>
       <c r="C170" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,10 +4353,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>331</v>
+        <v>693</v>
       </c>
       <c r="C171" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,10 +4364,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
+        <v>694</v>
       </c>
       <c r="C172" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,10 +4375,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="C173" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,10 +4386,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="C174" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,10 +4397,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>695</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,10 +4408,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,10 +4419,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>343</v>
+        <v>696</v>
       </c>
       <c r="C177" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +4430,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>345</v>
+        <v>697</v>
       </c>
       <c r="C178" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +4441,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>347</v>
+        <v>698</v>
       </c>
       <c r="C179" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4452,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="C180" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4463,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="C181" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4474,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
+        <v>699</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +4485,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>355</v>
+        <v>700</v>
       </c>
       <c r="C183" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +4496,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="C184" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,10 +4507,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="C185" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,10 +4518,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>361</v>
+        <v>701</v>
       </c>
       <c r="C186" t="s">
-        <v>362</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4526,10 +4529,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>363</v>
+        <v>702</v>
       </c>
       <c r="C187" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,10 +4540,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="C188" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,10 +4551,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
+        <v>703</v>
       </c>
       <c r="C189" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4559,10 +4562,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>285</v>
       </c>
       <c r="C190" t="s">
-        <v>370</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4570,10 +4573,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="C191" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,10 +4584,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="C192" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,10 +4595,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="C193" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,10 +4606,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="C194" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,10 +4617,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>379</v>
+        <v>705</v>
       </c>
       <c r="C195" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4625,10 +4628,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>706</v>
       </c>
       <c r="C196" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4636,10 +4639,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>161</v>
+        <v>640</v>
       </c>
       <c r="C197" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4647,10 +4650,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="C198" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4658,10 +4661,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4669,10 +4672,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
+        <v>707</v>
       </c>
       <c r="C200" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4680,10 +4683,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4691,10 +4694,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="C202" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4702,10 +4705,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="C203" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,10 +4716,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="C204" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,10 +4727,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="C205" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4735,10 +4738,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="C206" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,10 +4749,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="C207" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4757,10 +4760,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="C208" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4768,10 +4771,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="C209" t="s">
-        <v>407</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4779,10 +4782,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="C210" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4790,10 +4793,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="C211" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4801,10 +4804,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="C212" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4812,10 +4815,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="C213" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4823,10 +4826,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="C214" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4834,10 +4837,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="C215" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,10 +4848,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="C216" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4856,10 +4859,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="C217" t="s">
-        <v>423</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4867,10 +4870,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>424</v>
+        <v>336</v>
       </c>
       <c r="C218" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4878,10 +4881,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="C219" t="s">
-        <v>427</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,10 +4892,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="C220" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4900,10 +4903,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="C221" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,10 +4914,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="C222" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4922,10 +4925,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="C223" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4933,10 +4936,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="C224" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4944,10 +4947,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="C225" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4955,10 +4958,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="C226" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4966,10 +4969,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="C227" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,10 +4980,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="C228" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4988,10 +4991,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C229" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4999,10 +5002,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="C230" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -5010,10 +5013,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="C231" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5021,10 +5024,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="C232" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5032,10 +5035,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="C233" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5043,10 +5046,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="C234" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5054,10 +5057,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="C235" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5065,10 +5068,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="C236" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5076,10 +5079,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C237" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5087,10 +5090,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="C238" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5098,10 +5101,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="C239" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,10 +5112,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C240" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5120,10 +5123,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="C241" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5131,10 +5134,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="C242" t="s">
-        <v>472</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5142,10 +5145,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="C243" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,10 +5156,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="C244" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5164,10 +5167,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C245" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5175,10 +5178,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="C246" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5186,10 +5189,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
       <c r="C247" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5197,10 +5200,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="C248" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5208,10 +5211,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
-        <v>486</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,10 +5222,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="C250" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5230,10 +5233,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="C251" t="s">
-        <v>490</v>
+        <v>402</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,10 +5244,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="C252" t="s">
-        <v>492</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,10 +5255,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="C253" t="s">
-        <v>494</v>
+        <v>406</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5263,10 +5266,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>495</v>
+        <v>407</v>
       </c>
       <c r="C254" t="s">
-        <v>496</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5274,10 +5277,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>497</v>
+        <v>409</v>
       </c>
       <c r="C255" t="s">
-        <v>498</v>
+        <v>410</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,10 +5288,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="C256" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -5296,10 +5299,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="C257" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -5307,10 +5310,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="C258" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5318,10 +5321,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="C259" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5332,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="C260" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5340,10 +5343,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="C261" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -5351,10 +5354,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="C262" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -5362,10 +5365,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="C263" t="s">
-        <v>514</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5373,10 +5376,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>515</v>
+        <v>427</v>
       </c>
       <c r="C264" t="s">
-        <v>516</v>
+        <v>428</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,10 +5387,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>517</v>
+        <v>429</v>
       </c>
       <c r="C265" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,10 +5398,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="C266" t="s">
-        <v>520</v>
+        <v>432</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -5406,10 +5409,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>521</v>
+        <v>433</v>
       </c>
       <c r="C267" t="s">
-        <v>522</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5417,10 +5420,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="C268" t="s">
-        <v>524</v>
+        <v>436</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,10 +5431,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>525</v>
+        <v>437</v>
       </c>
       <c r="C269" t="s">
-        <v>526</v>
+        <v>438</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -5439,10 +5442,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
       <c r="C270" t="s">
-        <v>528</v>
+        <v>440</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5450,10 +5453,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>529</v>
+        <v>441</v>
       </c>
       <c r="C271" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5461,10 +5464,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="C272" t="s">
-        <v>532</v>
+        <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5472,10 +5475,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="C273" t="s">
-        <v>534</v>
+        <v>446</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5483,10 +5486,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>535</v>
+        <v>447</v>
       </c>
       <c r="C274" t="s">
-        <v>536</v>
+        <v>448</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5494,10 +5497,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>537</v>
+        <v>449</v>
       </c>
       <c r="C275" t="s">
-        <v>538</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,10 +5508,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>539</v>
+        <v>451</v>
       </c>
       <c r="C276" t="s">
-        <v>540</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5516,10 +5519,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>541</v>
+        <v>453</v>
       </c>
       <c r="C277" t="s">
-        <v>542</v>
+        <v>454</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5527,10 +5530,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="C278" t="s">
-        <v>544</v>
+        <v>456</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5538,10 +5541,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>545</v>
+        <v>457</v>
       </c>
       <c r="C279" t="s">
-        <v>546</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5549,10 +5552,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="C280" t="s">
-        <v>548</v>
+        <v>460</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5560,10 +5563,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>549</v>
+        <v>461</v>
       </c>
       <c r="C281" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,10 +5574,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="C282" t="s">
-        <v>552</v>
+        <v>464</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,10 +5585,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="C283" t="s">
-        <v>554</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5593,10 +5596,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>555</v>
+        <v>467</v>
       </c>
       <c r="C284" t="s">
-        <v>556</v>
+        <v>468</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -5604,10 +5607,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>557</v>
+        <v>469</v>
       </c>
       <c r="C285" t="s">
-        <v>558</v>
+        <v>470</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -5615,10 +5618,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>559</v>
+        <v>471</v>
       </c>
       <c r="C286" t="s">
-        <v>560</v>
+        <v>472</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5626,10 +5629,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>561</v>
+        <v>473</v>
       </c>
       <c r="C287" t="s">
-        <v>562</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5637,10 +5640,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>563</v>
+        <v>475</v>
       </c>
       <c r="C288" t="s">
-        <v>564</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -5648,10 +5651,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>565</v>
+        <v>477</v>
       </c>
       <c r="C289" t="s">
-        <v>566</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5659,10 +5662,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>567</v>
+        <v>479</v>
       </c>
       <c r="C290" t="s">
-        <v>568</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5670,10 +5673,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>569</v>
+        <v>481</v>
       </c>
       <c r="C291" t="s">
-        <v>570</v>
+        <v>482</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -5681,10 +5684,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>571</v>
+        <v>483</v>
       </c>
       <c r="C292" t="s">
-        <v>572</v>
+        <v>484</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5692,10 +5695,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>573</v>
+        <v>485</v>
       </c>
       <c r="C293" t="s">
-        <v>574</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5703,10 +5706,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>575</v>
+        <v>487</v>
       </c>
       <c r="C294" t="s">
-        <v>576</v>
+        <v>488</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5714,10 +5717,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>577</v>
+        <v>489</v>
       </c>
       <c r="C295" t="s">
-        <v>578</v>
+        <v>490</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,10 +5728,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>579</v>
+        <v>491</v>
       </c>
       <c r="C296" t="s">
-        <v>580</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5736,10 +5739,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>581</v>
+        <v>493</v>
       </c>
       <c r="C297" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5747,10 +5750,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>583</v>
+        <v>495</v>
       </c>
       <c r="C298" t="s">
-        <v>584</v>
+        <v>496</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5758,10 +5761,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>585</v>
+        <v>497</v>
       </c>
       <c r="C299" t="s">
-        <v>586</v>
+        <v>498</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -5769,10 +5772,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="C300" t="s">
-        <v>587</v>
+        <v>499</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5780,10 +5783,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="C301" t="s">
-        <v>589</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5791,10 +5794,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>590</v>
+        <v>502</v>
       </c>
       <c r="C302" t="s">
-        <v>591</v>
+        <v>503</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5802,10 +5805,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>592</v>
+        <v>504</v>
       </c>
       <c r="C303" t="s">
-        <v>593</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5813,10 +5816,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="C304" t="s">
-        <v>595</v>
+        <v>507</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -5824,10 +5827,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>596</v>
+        <v>508</v>
       </c>
       <c r="C305" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5835,10 +5838,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>598</v>
+        <v>510</v>
       </c>
       <c r="C306" t="s">
-        <v>599</v>
+        <v>511</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5846,10 +5849,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="C307" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,10 +5860,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>602</v>
+        <v>514</v>
       </c>
       <c r="C308" t="s">
-        <v>603</v>
+        <v>515</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -5868,10 +5871,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>604</v>
+        <v>516</v>
       </c>
       <c r="C309" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,10 +5882,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>606</v>
+        <v>518</v>
       </c>
       <c r="C310" t="s">
-        <v>607</v>
+        <v>519</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5890,10 +5893,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>608</v>
+        <v>520</v>
       </c>
       <c r="C311" t="s">
-        <v>609</v>
+        <v>521</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5901,10 +5904,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="C312" t="s">
-        <v>611</v>
+        <v>523</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -5912,10 +5915,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C313" t="s">
-        <v>612</v>
+        <v>524</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5923,10 +5926,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>613</v>
+        <v>525</v>
       </c>
       <c r="C314" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -5934,10 +5937,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="C315" t="s">
-        <v>615</v>
+        <v>527</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,10 +5948,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="C316" t="s">
-        <v>617</v>
+        <v>529</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -5956,10 +5959,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>618</v>
+        <v>530</v>
       </c>
       <c r="C317" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -5967,10 +5970,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>620</v>
+        <v>532</v>
       </c>
       <c r="C318" t="s">
-        <v>621</v>
+        <v>533</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5978,10 +5981,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>622</v>
+        <v>534</v>
       </c>
       <c r="C319" t="s">
-        <v>623</v>
+        <v>535</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5989,10 +5992,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>624</v>
+        <v>536</v>
       </c>
       <c r="C320" t="s">
-        <v>625</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6000,10 +6003,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>626</v>
+        <v>538</v>
       </c>
       <c r="C321" t="s">
-        <v>627</v>
+        <v>539</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6011,10 +6014,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>628</v>
+        <v>540</v>
       </c>
       <c r="C322" t="s">
-        <v>629</v>
+        <v>541</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6022,10 +6025,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>630</v>
+        <v>542</v>
       </c>
       <c r="C323" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6033,10 +6036,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="C324" t="s">
-        <v>633</v>
+        <v>545</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6044,10 +6047,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="C325" t="s">
-        <v>635</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6055,10 +6058,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="C326" t="s">
-        <v>637</v>
+        <v>549</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6066,10 +6069,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="C327" t="s">
-        <v>639</v>
+        <v>551</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,10 +6080,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>640</v>
+        <v>552</v>
       </c>
       <c r="C328" t="s">
-        <v>641</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6088,10 +6091,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>642</v>
+        <v>554</v>
       </c>
       <c r="C329" t="s">
-        <v>643</v>
+        <v>555</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -6099,10 +6102,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="C330" t="s">
-        <v>645</v>
+        <v>557</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -6110,10 +6113,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="C331" t="s">
-        <v>647</v>
+        <v>559</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -6121,10 +6124,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
       <c r="C332" t="s">
-        <v>649</v>
+        <v>561</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6132,10 +6135,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>650</v>
+        <v>562</v>
       </c>
       <c r="C333" t="s">
-        <v>651</v>
+        <v>563</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,10 +6146,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>652</v>
+        <v>564</v>
       </c>
       <c r="C334" t="s">
-        <v>653</v>
+        <v>565</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6154,10 +6157,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>654</v>
+        <v>566</v>
       </c>
       <c r="C335" t="s">
-        <v>655</v>
+        <v>567</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -6165,10 +6168,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>656</v>
+        <v>568</v>
       </c>
       <c r="C336" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -6176,10 +6179,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>658</v>
+        <v>570</v>
       </c>
       <c r="C337" t="s">
-        <v>659</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -6187,10 +6190,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>660</v>
+        <v>572</v>
       </c>
       <c r="C338" t="s">
-        <v>661</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -6198,10 +6201,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>662</v>
+        <v>574</v>
       </c>
       <c r="C339" t="s">
-        <v>663</v>
+        <v>575</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,10 +6212,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>664</v>
+        <v>576</v>
       </c>
       <c r="C340" t="s">
-        <v>665</v>
+        <v>577</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -6220,10 +6223,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>666</v>
+        <v>578</v>
       </c>
       <c r="C341" t="s">
-        <v>667</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -6231,10 +6234,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>668</v>
+        <v>580</v>
       </c>
       <c r="C342" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -6242,10 +6245,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>670</v>
+        <v>582</v>
       </c>
       <c r="C343" t="s">
-        <v>671</v>
+        <v>583</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,10 +6256,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>672</v>
+        <v>584</v>
       </c>
       <c r="C344" t="s">
-        <v>673</v>
+        <v>585</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,10 +6267,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>674</v>
+        <v>586</v>
       </c>
       <c r="C345" t="s">
-        <v>675</v>
+        <v>587</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,10 +6278,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>676</v>
+        <v>588</v>
       </c>
       <c r="C346" t="s">
-        <v>677</v>
+        <v>589</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,10 +6289,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>678</v>
+        <v>590</v>
       </c>
       <c r="C347" t="s">
-        <v>679</v>
+        <v>591</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,10 +6300,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>680</v>
+        <v>592</v>
       </c>
       <c r="C348" t="s">
-        <v>681</v>
+        <v>593</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -6308,10 +6311,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>682</v>
+        <v>594</v>
       </c>
       <c r="C349" t="s">
-        <v>683</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6319,10 +6322,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>684</v>
+        <v>596</v>
       </c>
       <c r="C350" t="s">
-        <v>685</v>
+        <v>597</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,10 +6333,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>686</v>
+        <v>598</v>
       </c>
       <c r="C351" t="s">
-        <v>687</v>
+        <v>599</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,10 +6344,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="C352" t="s">
-        <v>689</v>
+        <v>601</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -6352,10 +6355,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>690</v>
+        <v>602</v>
       </c>
       <c r="C353" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,10 +6366,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="C354" t="s">
-        <v>693</v>
+        <v>605</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,10 +6377,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="C355" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -6385,10 +6388,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="C356" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -6396,10 +6399,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>698</v>
+        <v>610</v>
       </c>
       <c r="C357" t="s">
-        <v>699</v>
+        <v>611</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -6407,10 +6410,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>700</v>
+        <v>612</v>
       </c>
       <c r="C358" t="s">
-        <v>701</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/database/words.xlsx
+++ b/database/words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\_English_Cards\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\git_ws\_Private_Projects\English_Cards\English_Cards\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A09E7-5338-4846-92F4-34AE343E7DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C67835-A824-4EEB-A0D9-E3815A70985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="709">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -171,9 +171,6 @@
     <t>I feel good.</t>
   </si>
   <si>
-    <t>Cítím se špatne.</t>
-  </si>
-  <si>
     <t>I feel bad.</t>
   </si>
   <si>
@@ -945,9 +942,6 @@
     <t>I didn't catch that.</t>
   </si>
   <si>
-    <t>Pojdme to brzy dohnat.</t>
-  </si>
-  <si>
     <t>Let's catch up soon.</t>
   </si>
   <si>
@@ -957,9 +951,6 @@
     <t>What do you think?</t>
   </si>
   <si>
-    <t>Dám vám vedet.</t>
-  </si>
-  <si>
     <t>I'll let you know.</t>
   </si>
   <si>
@@ -981,21 +972,12 @@
     <t>How can I assist you?</t>
   </si>
   <si>
-    <t>Bydlím ve meste.</t>
-  </si>
-  <si>
     <t>I live in a city.</t>
   </si>
   <si>
-    <t>Bydlím v malém meste.</t>
-  </si>
-  <si>
     <t>I live in a small town.</t>
   </si>
   <si>
-    <t>Žiju na venkove.</t>
-  </si>
-  <si>
     <t>I live in the countryside.</t>
   </si>
   <si>
@@ -1005,9 +987,6 @@
     <t>I live near the beach.</t>
   </si>
   <si>
-    <t>Jaké je Vaše zamestnání?</t>
-  </si>
-  <si>
     <t>What's your job?</t>
   </si>
   <si>
@@ -1017,9 +996,6 @@
     <t>I'm looking for a job.</t>
   </si>
   <si>
-    <t>Jsem ucitel.</t>
-  </si>
-  <si>
     <t>I'm a teacher.</t>
   </si>
   <si>
@@ -1029,15 +1005,9 @@
     <t>I work in a hospital.</t>
   </si>
   <si>
-    <t>Jsem v duchodu.</t>
-  </si>
-  <si>
     <t>I'm retired.</t>
   </si>
   <si>
-    <t>Máš nejaké domácí mazlícky?</t>
-  </si>
-  <si>
     <t>Do you have any pets?</t>
   </si>
   <si>
@@ -1047,27 +1017,15 @@
     <t>That makes sense.</t>
   </si>
   <si>
-    <t>Ocenuji tvou pomoc.</t>
-  </si>
-  <si>
     <t>I appreciate your help.</t>
   </si>
   <si>
-    <t>Rád jsem te potkal.</t>
-  </si>
-  <si>
     <t>It was nice meeting you.</t>
   </si>
   <si>
-    <t>Zustanme v kontaktu.</t>
-  </si>
-  <si>
     <t>Let's keep in touch.</t>
   </si>
   <si>
-    <t>Bezpecné cesty!</t>
-  </si>
-  <si>
     <t>Safe travels!</t>
   </si>
   <si>
@@ -1083,9 +1041,6 @@
     <t>I'm not sure.</t>
   </si>
   <si>
-    <t>Mohl bys mi to vysvetlit?</t>
-  </si>
-  <si>
     <t>Could you explain that to me?</t>
   </si>
   <si>
@@ -1107,15 +1062,9 @@
     <t>Can I have the bill, please?</t>
   </si>
   <si>
-    <t>Mužete mi doporucit nejakou dobrou restauraci?</t>
-  </si>
-  <si>
     <t>Can you recommend a good restaurant?</t>
   </si>
   <si>
-    <t>Mužete mi dát pokyny?</t>
-  </si>
-  <si>
     <t>Could you give me directions?</t>
   </si>
   <si>
@@ -1125,9 +1074,6 @@
     <t>Where is the restroom?</t>
   </si>
   <si>
-    <t>Chtel bych provést rezervaci.</t>
-  </si>
-  <si>
     <t>I'd like to make a reservation.</t>
   </si>
   <si>
@@ -1176,9 +1122,6 @@
     <t>Could you help me, please?</t>
   </si>
   <si>
-    <t>Jsem tu na schuzce.</t>
-  </si>
-  <si>
     <t>I'm here for my appointment.</t>
   </si>
   <si>
@@ -1188,15 +1131,9 @@
     <t>Where can I park?</t>
   </si>
   <si>
-    <t>Tohle bych chtel vrátit.</t>
-  </si>
-  <si>
     <t>I'd like to return this.</t>
   </si>
   <si>
-    <t>dorucujete?</t>
-  </si>
-  <si>
     <t>Do you deliver?</t>
   </si>
   <si>
@@ -1206,21 +1143,12 @@
     <t>What's the Wi-Fi password?</t>
   </si>
   <si>
-    <t>Chtel bych zrušit svou objednávku.</t>
-  </si>
-  <si>
     <t>I'd like to cancel my order.</t>
   </si>
   <si>
-    <t>Mužu dostat úctenku, prosím?</t>
-  </si>
-  <si>
     <t>Can I have a receipt, please?</t>
   </si>
   <si>
-    <t>Jaký je smenný kurz?</t>
-  </si>
-  <si>
     <t>What's the exchange rate?</t>
   </si>
   <si>
@@ -1242,9 +1170,6 @@
     <t>What are the opening hours?</t>
   </si>
   <si>
-    <t>Mohu si zarezervovat stul pro dva?</t>
-  </si>
-  <si>
     <t>Can I book a table for two?</t>
   </si>
   <si>
@@ -1254,9 +1179,6 @@
     <t>Where's the nearest ATM?</t>
   </si>
   <si>
-    <t>Jak se dostanu na letište?</t>
-  </si>
-  <si>
     <t>How do I get to the airport?</t>
   </si>
   <si>
@@ -1284,9 +1206,6 @@
     <t>What does this word mean?</t>
   </si>
   <si>
-    <t>Mužeme si rozdelit úcet?</t>
-  </si>
-  <si>
     <t>Can we split the bill?</t>
   </si>
   <si>
@@ -1296,9 +1215,6 @@
     <t>I'm here on vacation.</t>
   </si>
   <si>
-    <t>Co byste mi doporucili?</t>
-  </si>
-  <si>
     <t>What do you recommend?</t>
   </si>
   <si>
@@ -1314,9 +1230,6 @@
     <t>How far is it?</t>
   </si>
   <si>
-    <t>Mužu dostat ten šek, prosím?</t>
-  </si>
-  <si>
     <t>Can I have the check, please?</t>
   </si>
   <si>
@@ -1338,21 +1251,12 @@
     <t>Can I leave my luggage here?</t>
   </si>
   <si>
-    <t>Jaký je nejlepší zpusob, jak se dostat do...?</t>
-  </si>
-  <si>
     <t>What's the best way to get to...?</t>
   </si>
   <si>
-    <t>Potrebuji adaptér.</t>
-  </si>
-  <si>
     <t>I need an adapter.</t>
   </si>
   <si>
-    <t>Mužu dostat mapu?</t>
-  </si>
-  <si>
     <t>Can I have a map?</t>
   </si>
   <si>
@@ -1374,9 +1278,6 @@
     <t>Do you know where I can buy...?</t>
   </si>
   <si>
-    <t>Jsem tu služebne.</t>
-  </si>
-  <si>
     <t>I'm here on business.</t>
   </si>
   <si>
@@ -1386,15 +1287,9 @@
     <t>Can I have a late checkout?</t>
   </si>
   <si>
-    <t>Kde si mohu pujcit auto?</t>
-  </si>
-  <si>
     <t>Where can I rent a car?</t>
   </si>
   <si>
-    <t>Potrebuji zmenit rezervaci.</t>
-  </si>
-  <si>
     <t>I need to change my booking.</t>
   </si>
   <si>
@@ -1410,21 +1305,12 @@
     <t>Can I have a window seat?</t>
   </si>
   <si>
-    <t>Je v cene snídane?</t>
-  </si>
-  <si>
     <t>Is breakfast included?</t>
   </si>
   <si>
-    <t>Jak se pripojím k Wi-Fi?</t>
-  </si>
-  <si>
     <t>How do I connect to the Wi-Fi?</t>
   </si>
   <si>
-    <t>Mohu mít nekurácký pokoj?</t>
-  </si>
-  <si>
     <t>Can I have a non-smoking room?</t>
   </si>
   <si>
@@ -1434,9 +1320,6 @@
     <t>Where can I find a pharmacy?</t>
   </si>
   <si>
-    <t>Mužete doporucit prohlídku?</t>
-  </si>
-  <si>
     <t>Can you recommend a tour?</t>
   </si>
   <si>
@@ -1446,15 +1329,9 @@
     <t>How do I get to the train station?</t>
   </si>
   <si>
-    <t>Na semaforech odbocte doleva.</t>
-  </si>
-  <si>
     <t>Turn left at the traffic lights.</t>
   </si>
   <si>
-    <t>Jdete stále rovne.</t>
-  </si>
-  <si>
     <t>Keep going straight ahead.</t>
   </si>
   <si>
@@ -1470,9 +1347,6 @@
     <t>I'm looking for Mr. Smith.</t>
   </si>
   <si>
-    <t>Mužu nechat zprávu?</t>
-  </si>
-  <si>
     <t>Could I leave a message?</t>
   </si>
   <si>
@@ -1494,15 +1368,9 @@
     <t>I think there's a mistake.</t>
   </si>
   <si>
-    <t>Jsem alergický na orechy.</t>
-  </si>
-  <si>
     <t>I'm allergic to nuts.</t>
   </si>
   <si>
-    <t>Mužeme si dát ješte chleba?</t>
-  </si>
-  <si>
     <t>Could we have some more bread?</t>
   </si>
   <si>
@@ -1518,30 +1386,18 @@
     <t>My phone's battery is dead.</t>
   </si>
   <si>
-    <t>Máte nabíjecku, kterou bych mohl použít?</t>
-  </si>
-  <si>
     <t>Do you have a charger I could use?</t>
   </si>
   <si>
     <t>Could you recommend a good restaurant?</t>
   </si>
   <si>
-    <t>Jaké památky bych mel videt?</t>
-  </si>
-  <si>
     <t>What sights should I see?</t>
   </si>
   <si>
-    <t>Je nekde poblíž lékárna?</t>
-  </si>
-  <si>
     <t>Is there a pharmacy nearby?</t>
   </si>
   <si>
-    <t>Potrebuji koupit nejaké známky.</t>
-  </si>
-  <si>
     <t>I need to buy some stamps.</t>
   </si>
   <si>
@@ -1551,15 +1407,9 @@
     <t>Where can I post this letter?</t>
   </si>
   <si>
-    <t>Chtel bych si pujcit auto.</t>
-  </si>
-  <si>
     <t>I'd like to rent a car.</t>
   </si>
   <si>
-    <t>Mohl byste presunout tašku, prosím?</t>
-  </si>
-  <si>
     <t>Could you move your bag, please?</t>
   </si>
   <si>
@@ -1569,9 +1419,6 @@
     <t>The train is full.</t>
   </si>
   <si>
-    <t>Z jakého nástupište vlak odjíždí?</t>
-  </si>
-  <si>
     <t>What platform does the train leave from?</t>
   </si>
   <si>
@@ -1581,21 +1428,12 @@
     <t>Is this the train to London?</t>
   </si>
   <si>
-    <t>Jak dlouho cesta trvá?</t>
-  </si>
-  <si>
     <t>How long does the journey take?</t>
   </si>
   <si>
-    <t>Mužu otevrít okno?</t>
-  </si>
-  <si>
     <t>Can I open the window?</t>
   </si>
   <si>
-    <t>Chtel bych sedadlo u okna, prosím.</t>
-  </si>
-  <si>
     <t>I'd like a window seat, please.</t>
   </si>
   <si>
@@ -1611,9 +1449,6 @@
     <t>Can you call a taxi for me?</t>
   </si>
   <si>
-    <t>Jak daleko je to na letište?</t>
-  </si>
-  <si>
     <t>How far is it to the airport?</t>
   </si>
   <si>
@@ -1629,9 +1464,6 @@
     <t>How much is the entrance fee?</t>
   </si>
   <si>
-    <t>Mužu fotografovat?</t>
-  </si>
-  <si>
     <t>Can I take photos?</t>
   </si>
   <si>
@@ -1653,21 +1485,12 @@
     <t>Can I get a refund?</t>
   </si>
   <si>
-    <t>Jen prohlížím, dekuji.</t>
-  </si>
-  <si>
     <t>I'm just browsing, thank you.</t>
   </si>
   <si>
-    <t>hledám dárek.</t>
-  </si>
-  <si>
     <t>I'm looking for a gift.</t>
   </si>
   <si>
-    <t>Máte to v jiné barve?</t>
-  </si>
-  <si>
     <t>Do you have this in another color?</t>
   </si>
   <si>
@@ -1677,15 +1500,9 @@
     <t>Can I pay in installments?</t>
   </si>
   <si>
-    <t>Toto je dárek. Mužeš mi to zabalit?</t>
-  </si>
-  <si>
     <t>This is a gift. Can you wrap it for me?</t>
   </si>
   <si>
-    <t>Musím si domluvit schuzku.</t>
-  </si>
-  <si>
     <t>I need to make an appointment.</t>
   </si>
   <si>
@@ -1695,9 +1512,6 @@
     <t>I have a reservation.</t>
   </si>
   <si>
-    <t>Chtel bych zrušit svou rezervaci.</t>
-  </si>
-  <si>
     <t>I'd like to cancel my booking.</t>
   </si>
   <si>
@@ -1707,27 +1521,15 @@
     <t>I'm here for the conference.</t>
   </si>
   <si>
-    <t>Kde je registracní pult?</t>
-  </si>
-  <si>
     <t>Where's the registration desk?</t>
   </si>
   <si>
-    <t>Mohu dostat mapu mesta?</t>
-  </si>
-  <si>
     <t>Can I have a map of the city?</t>
   </si>
   <si>
-    <t>Kde si mohu vymenit peníze?</t>
-  </si>
-  <si>
     <t>Where can I exchange money?</t>
   </si>
   <si>
-    <t>Potrebuji provést výber.</t>
-  </si>
-  <si>
     <t>I need to make a withdrawal.</t>
   </si>
   <si>
@@ -1737,33 +1539,18 @@
     <t>My card isn't working.</t>
   </si>
   <si>
-    <t>Zapomnel jsem svuj PIN.</t>
-  </si>
-  <si>
     <t>I forgot my PIN.</t>
   </si>
   <si>
-    <t>V kolik hodin se podává snídane?</t>
-  </si>
-  <si>
     <t>What time is breakfast served?</t>
   </si>
   <si>
-    <t>Máte telocvicnu?</t>
-  </si>
-  <si>
     <t>Do you have a gym?</t>
   </si>
   <si>
-    <t>Je bazén vyhrívaný?</t>
-  </si>
-  <si>
     <t>Is the pool heated?</t>
   </si>
   <si>
-    <t>Potrebuji polštár navíc.</t>
-  </si>
-  <si>
     <t>I need an extra pillow.</t>
   </si>
   <si>
@@ -1773,27 +1560,15 @@
     <t>The air conditioning isn't working.</t>
   </si>
   <si>
-    <t>Užil jsem si svuj pobyt.</t>
-  </si>
-  <si>
     <t>I've enjoyed my stay.</t>
   </si>
   <si>
-    <t>Mužete mi doporucit jiný hotel?</t>
-  </si>
-  <si>
     <t>Could you recommend another hotel?</t>
   </si>
   <si>
-    <t>Pokousal me hmyz.</t>
-  </si>
-  <si>
     <t>I've been bitten by an insect.</t>
   </si>
   <si>
-    <t>Ztratil jsem klíc.</t>
-  </si>
-  <si>
     <t>I've lost my key.</t>
   </si>
   <si>
@@ -1803,9 +1578,6 @@
     <t>Can I have a wake-up call?</t>
   </si>
   <si>
-    <t>Hledám turistickou informacní kancelár.</t>
-  </si>
-  <si>
     <t>I'm looking for the tourist information office.</t>
   </si>
   <si>
@@ -1815,9 +1587,6 @@
     <t>Can I buy a ticket here?</t>
   </si>
   <si>
-    <t>Kdy jede další autobus do centra mesta?</t>
-  </si>
-  <si>
     <t>When's the next bus to the city center?</t>
   </si>
   <si>
@@ -1833,21 +1602,12 @@
     <t>Is there a discount for students?</t>
   </si>
   <si>
-    <t>Chtel bych obnovit své clenství.</t>
-  </si>
-  <si>
     <t>I'd like to renew my membership.</t>
   </si>
   <si>
-    <t>Mohu si zmenit místo?</t>
-  </si>
-  <si>
     <t>Can I change my seat?</t>
   </si>
   <si>
-    <t>Zmeškal jsem svuj let.</t>
-  </si>
-  <si>
     <t>I missed my flight.</t>
   </si>
   <si>
@@ -1863,9 +1623,6 @@
     <t>Is there a shuttle to the hotel?</t>
   </si>
   <si>
-    <t>Musím neco prohlásit.</t>
-  </si>
-  <si>
     <t>I need to declare something.</t>
   </si>
   <si>
@@ -2149,6 +1906,252 @@
   </si>
   <si>
     <t>To zní skvěle.</t>
+  </si>
+  <si>
+    <t>Pojďme to brzy dohnat.</t>
+  </si>
+  <si>
+    <t>Dám vám vědet.</t>
+  </si>
+  <si>
+    <t>Bydlím ve měste.</t>
+  </si>
+  <si>
+    <t>Bydlím v malém měste.</t>
+  </si>
+  <si>
+    <t>Jaké je Vaše zaměstnání?</t>
+  </si>
+  <si>
+    <t>Jsem učitel.</t>
+  </si>
+  <si>
+    <t>Jsem v důchodu.</t>
+  </si>
+  <si>
+    <t>Oceňuji tvou pomoc.</t>
+  </si>
+  <si>
+    <t>Rád jsem tě potkal.</t>
+  </si>
+  <si>
+    <t>Zůstanme v kontaktu.</t>
+  </si>
+  <si>
+    <t>Žiju na venkově.</t>
+  </si>
+  <si>
+    <t>Máš nějaké domácí mazlíčky?</t>
+  </si>
+  <si>
+    <t>Bezpečné cesty!</t>
+  </si>
+  <si>
+    <t>Mohl bys mi to vysvětlit?</t>
+  </si>
+  <si>
+    <t>Mužete mi doporučit nějakou dobrou restauraci?</t>
+  </si>
+  <si>
+    <t>Můžete mi dát pokyny?</t>
+  </si>
+  <si>
+    <t>Chtěl bych provést rezervaci.</t>
+  </si>
+  <si>
+    <t>Jsem tu na schůzce.</t>
+  </si>
+  <si>
+    <t>Tohle bych chtěl vrátit.</t>
+  </si>
+  <si>
+    <t>Doručujete?</t>
+  </si>
+  <si>
+    <t>Chtěl bych zrušit svou objednávku.</t>
+  </si>
+  <si>
+    <t>Můžu dostat účtenku, prosím?</t>
+  </si>
+  <si>
+    <t>Jaký je směnný kurz?</t>
+  </si>
+  <si>
+    <t>Mohu si zarezervovat stůl pro dva?</t>
+  </si>
+  <si>
+    <t>Jak se dostanu na letiště?</t>
+  </si>
+  <si>
+    <t>Můžeme si rozdělit účet?</t>
+  </si>
+  <si>
+    <t>Co byste mi doporučili?</t>
+  </si>
+  <si>
+    <t>Můžu dostat ten šek, prosím?</t>
+  </si>
+  <si>
+    <t>Jaký je nejlepší způsob, jak se dostat do...?</t>
+  </si>
+  <si>
+    <t>Potřebuji adaptér.</t>
+  </si>
+  <si>
+    <t>Můžu dostat mapu?</t>
+  </si>
+  <si>
+    <t>Jsem tu služebně.</t>
+  </si>
+  <si>
+    <t>Kde si mohu půjčit auto?</t>
+  </si>
+  <si>
+    <t>Potřebuji změnit rezervaci.</t>
+  </si>
+  <si>
+    <t>Je v ceně snídane?</t>
+  </si>
+  <si>
+    <t>Jak se připojím k Wi-Fi?</t>
+  </si>
+  <si>
+    <t>Mohu mít nekuřácký pokoj?</t>
+  </si>
+  <si>
+    <t>Mužete doporučit prohlídku?</t>
+  </si>
+  <si>
+    <t>Na semaforech odbočte doleva.</t>
+  </si>
+  <si>
+    <t>Jděte stále rovně.</t>
+  </si>
+  <si>
+    <t>Můžu nechat zprávu?</t>
+  </si>
+  <si>
+    <t>Jsem alergický na ořechy.</t>
+  </si>
+  <si>
+    <t>Mužeme si dát ještě chleba?</t>
+  </si>
+  <si>
+    <t>Máte nabíječku, kterou bych mohl použít?</t>
+  </si>
+  <si>
+    <t>Můžete mi doporučit nějakou dobrou restauraci?</t>
+  </si>
+  <si>
+    <t>Jaké památky bych měl vidět?</t>
+  </si>
+  <si>
+    <t>Je někde poblíž lékárna?</t>
+  </si>
+  <si>
+    <t>Potřebuji koupit nějaké známky.</t>
+  </si>
+  <si>
+    <t>Chtěl bych si půjčit auto.</t>
+  </si>
+  <si>
+    <t>Mohl byste přesunout tašku, prosím?</t>
+  </si>
+  <si>
+    <t>Z jakého nástupiště vlak odjíždí?</t>
+  </si>
+  <si>
+    <t>Jak dlouho trvá cesta?</t>
+  </si>
+  <si>
+    <t>Můžu otevřít okno?</t>
+  </si>
+  <si>
+    <t>Chtěl bych sedadlo u okna, prosím.</t>
+  </si>
+  <si>
+    <t>Můžete mi zavolat taxi?</t>
+  </si>
+  <si>
+    <t>Jak daleko je to na letiště?</t>
+  </si>
+  <si>
+    <t>Můžu fotografovat?</t>
+  </si>
+  <si>
+    <t>Jen prohlížím, děkuji.</t>
+  </si>
+  <si>
+    <t>Hledám dárek.</t>
+  </si>
+  <si>
+    <t>Máte to v jiné barvě?</t>
+  </si>
+  <si>
+    <t>Toto je dárek. Můžeš mi to zabalit?</t>
+  </si>
+  <si>
+    <t>Musím si domluvit schůzku.</t>
+  </si>
+  <si>
+    <t>Chtěl bych zrušit svou rezervaci.</t>
+  </si>
+  <si>
+    <t>Kde je registrační pult?</t>
+  </si>
+  <si>
+    <t>Mohu dostat mapu města?</t>
+  </si>
+  <si>
+    <t>Kde si mohu vyměnit peníze?</t>
+  </si>
+  <si>
+    <t>Potřebuji provést výběr.</t>
+  </si>
+  <si>
+    <t>Zapomněl jsem svůj PIN.</t>
+  </si>
+  <si>
+    <t>V kolik hodin se podává snídaně?</t>
+  </si>
+  <si>
+    <t>Máte tělocvičnu?</t>
+  </si>
+  <si>
+    <t>Je bazén vyhřívaný?</t>
+  </si>
+  <si>
+    <t>Potřebuji polštář navíc.</t>
+  </si>
+  <si>
+    <t>Užil jsem si svůj pobyt.</t>
+  </si>
+  <si>
+    <t>Můžete mi doporučit jiný hotel?</t>
+  </si>
+  <si>
+    <t>Pokousal mě hmyz.</t>
+  </si>
+  <si>
+    <t>Ztratil jsem klíč.</t>
+  </si>
+  <si>
+    <t>Hledám turistickou informační kancelář.</t>
+  </si>
+  <si>
+    <t>Kdy jede další autobus do centra města?</t>
+  </si>
+  <si>
+    <t>Chtěl bych obnovit své členství.</t>
+  </si>
+  <si>
+    <t>Mohu si změnit místo?</t>
+  </si>
+  <si>
+    <t>Zmeškal jsem svůj let.</t>
+  </si>
+  <si>
+    <t>Musím něco prohlásit.</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2468,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,7 +2483,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>618</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2571,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2582,7 +2585,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>620</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2615,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>621</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -2681,10 +2684,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,7 +2750,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>622</v>
+        <v>541</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -2758,7 +2761,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>623</v>
+        <v>542</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2780,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>624</v>
+        <v>543</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -2791,10 +2794,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2805,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2816,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
         <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2827,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2838,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>616</v>
+        <v>535</v>
       </c>
       <c r="C33" t="s">
-        <v>617</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2849,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,10 +2860,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2871,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2882,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2893,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,10 +2904,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
         <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,10 +2915,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
         <v>68</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,10 +2926,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,10 +2937,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,10 +2948,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
         <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,10 +2959,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,10 +2970,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>628</v>
+        <v>547</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,10 +2981,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,10 +2992,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>629</v>
+        <v>548</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,10 +3003,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
         <v>81</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,10 +3014,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
         <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,10 +3025,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>549</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,10 +3036,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,10 +3047,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,10 +3058,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
         <v>90</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,10 +3069,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3077,10 +3080,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>631</v>
+        <v>550</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3088,10 +3091,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3099,10 +3102,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
         <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3110,10 +3113,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
         <v>99</v>
-      </c>
-      <c r="C58" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3121,10 +3124,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
         <v>101</v>
-      </c>
-      <c r="C59" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,10 +3135,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>629</v>
+        <v>548</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3143,10 +3146,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3154,10 +3157,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
         <v>104</v>
-      </c>
-      <c r="C62" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,10 +3168,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>632</v>
+        <v>551</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3176,10 +3179,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3187,10 +3190,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
         <v>108</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3198,10 +3201,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
         <v>110</v>
-      </c>
-      <c r="C66" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3209,10 +3212,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
         <v>112</v>
-      </c>
-      <c r="C67" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3231,10 +3234,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>635</v>
+        <v>554</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,10 +3245,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
         <v>116</v>
-      </c>
-      <c r="C70" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,10 +3256,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
         <v>118</v>
-      </c>
-      <c r="C71" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3264,10 +3267,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>636</v>
+        <v>555</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3275,10 +3278,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
         <v>121</v>
-      </c>
-      <c r="C73" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3286,10 +3289,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>637</v>
+        <v>556</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3297,10 +3300,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
         <v>124</v>
-      </c>
-      <c r="C75" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,10 +3311,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
         <v>126</v>
-      </c>
-      <c r="C76" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3319,10 +3322,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>638</v>
+        <v>557</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3330,10 +3333,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
         <v>129</v>
-      </c>
-      <c r="C78" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3341,10 +3344,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>639</v>
+        <v>558</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3352,10 +3355,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" t="s">
         <v>132</v>
-      </c>
-      <c r="C80" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3363,10 +3366,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
         <v>134</v>
-      </c>
-      <c r="C81" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3374,10 +3377,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
         <v>136</v>
-      </c>
-      <c r="C82" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,10 +3388,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
         <v>138</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3396,10 +3399,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
         <v>140</v>
-      </c>
-      <c r="C84" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,10 +3410,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3418,10 +3421,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>641</v>
+        <v>560</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,10 +3432,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>642</v>
+        <v>561</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,10 +3443,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,10 +3454,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
         <v>146</v>
-      </c>
-      <c r="C89" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,10 +3465,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,10 +3476,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>644</v>
+        <v>563</v>
       </c>
       <c r="C91" t="s">
-        <v>645</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3484,10 +3487,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" t="s">
         <v>149</v>
-      </c>
-      <c r="C92" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3495,10 +3498,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" t="s">
         <v>151</v>
-      </c>
-      <c r="C93" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3506,10 +3509,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>646</v>
+        <v>565</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3517,10 +3520,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
         <v>154</v>
-      </c>
-      <c r="C95" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,10 +3531,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>647</v>
+        <v>566</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,10 +3542,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>648</v>
+        <v>567</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,10 +3553,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" t="s">
         <v>158</v>
-      </c>
-      <c r="C98" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,10 +3564,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>649</v>
+        <v>568</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,10 +3575,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
         <v>161</v>
-      </c>
-      <c r="C100" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3583,10 +3586,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3594,10 +3597,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>651</v>
+        <v>570</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,10 +3608,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>652</v>
+        <v>571</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,10 +3619,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>653</v>
+        <v>572</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,10 +3630,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>654</v>
+        <v>573</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,10 +3641,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,10 +3652,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>656</v>
+        <v>575</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,10 +3663,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3671,10 +3674,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" t="s">
         <v>171</v>
-      </c>
-      <c r="C109" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,10 +3685,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" t="s">
         <v>173</v>
-      </c>
-      <c r="C110" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,10 +3696,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" t="s">
         <v>175</v>
-      </c>
-      <c r="C111" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,10 +3707,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>658</v>
+        <v>577</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,10 +3718,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" t="s">
         <v>178</v>
-      </c>
-      <c r="C113" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,10 +3729,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>659</v>
+        <v>578</v>
       </c>
       <c r="C114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,10 +3740,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
         <v>181</v>
-      </c>
-      <c r="C115" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3748,10 +3751,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,10 +3762,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="C117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3770,10 +3773,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" t="s">
         <v>185</v>
-      </c>
-      <c r="C118" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3781,10 +3784,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="s">
         <v>187</v>
-      </c>
-      <c r="C119" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,10 +3795,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,10 +3806,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>663</v>
+        <v>582</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3814,10 +3817,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
         <v>191</v>
-      </c>
-      <c r="C122" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3825,10 +3828,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="C123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3836,10 +3839,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>665</v>
+        <v>584</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" t="s">
         <v>195</v>
-      </c>
-      <c r="C125" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3858,10 +3861,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>666</v>
+        <v>585</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,10 +3872,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>667</v>
+        <v>586</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,10 +3883,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" t="s">
         <v>199</v>
-      </c>
-      <c r="C128" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,10 +3894,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" t="s">
         <v>201</v>
-      </c>
-      <c r="C129" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,10 +3905,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>668</v>
+        <v>587</v>
       </c>
       <c r="C130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,10 +3916,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3924,10 +3927,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>670</v>
+        <v>589</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,10 +3938,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="C133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,10 +3949,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" t="s">
         <v>207</v>
-      </c>
-      <c r="C134" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,10 +3960,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" t="s">
         <v>209</v>
-      </c>
-      <c r="C135" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,10 +3971,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" t="s">
         <v>211</v>
-      </c>
-      <c r="C136" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3979,10 +3982,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
         <v>213</v>
-      </c>
-      <c r="C137" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,10 +3993,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" t="s">
         <v>215</v>
-      </c>
-      <c r="C138" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4001,10 +4004,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" t="s">
         <v>217</v>
-      </c>
-      <c r="C139" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4012,10 +4015,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" t="s">
         <v>219</v>
-      </c>
-      <c r="C140" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4023,10 +4026,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
         <v>221</v>
-      </c>
-      <c r="C141" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4034,10 +4037,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4045,10 +4048,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" t="s">
         <v>224</v>
-      </c>
-      <c r="C143" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4056,10 +4059,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>673</v>
+        <v>592</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4067,10 +4070,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" t="s">
         <v>227</v>
-      </c>
-      <c r="C145" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,10 +4081,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>622</v>
+        <v>541</v>
       </c>
       <c r="C146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4089,10 +4092,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>674</v>
+        <v>593</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,10 +4103,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>675</v>
+        <v>594</v>
       </c>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4111,10 +4114,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>676</v>
+        <v>595</v>
       </c>
       <c r="C149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,10 +4125,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" t="s">
         <v>233</v>
-      </c>
-      <c r="C150" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4133,10 +4136,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" t="s">
         <v>235</v>
-      </c>
-      <c r="C151" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,10 +4147,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,10 +4158,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>678</v>
+        <v>597</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,10 +4169,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>679</v>
+        <v>598</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,10 +4180,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>680</v>
+        <v>599</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,10 +4191,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>240</v>
+      </c>
+      <c r="C156" t="s">
         <v>241</v>
-      </c>
-      <c r="C156" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,10 +4202,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="C157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,10 +4213,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>682</v>
+        <v>601</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" t="s">
         <v>245</v>
-      </c>
-      <c r="C159" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,10 +4235,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4246,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" t="s">
         <v>248</v>
-      </c>
-      <c r="C161" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4257,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>683</v>
+        <v>602</v>
       </c>
       <c r="C162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4268,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>684</v>
+        <v>603</v>
       </c>
       <c r="C163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4279,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>685</v>
+        <v>604</v>
       </c>
       <c r="C164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4290,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>686</v>
+        <v>605</v>
       </c>
       <c r="C165" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4301,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>687</v>
+        <v>606</v>
       </c>
       <c r="C166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4312,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>688</v>
+        <v>607</v>
       </c>
       <c r="C167" t="s">
-        <v>689</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4323,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>690</v>
+        <v>609</v>
       </c>
       <c r="C168" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4334,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>691</v>
+        <v>610</v>
       </c>
       <c r="C169" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4345,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>692</v>
+        <v>611</v>
       </c>
       <c r="C170" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>693</v>
+        <v>612</v>
       </c>
       <c r="C171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4367,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>694</v>
+        <v>613</v>
       </c>
       <c r="C172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4378,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" t="s">
         <v>260</v>
-      </c>
-      <c r="C173" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4389,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>261</v>
+      </c>
+      <c r="C174" t="s">
         <v>262</v>
-      </c>
-      <c r="C174" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4400,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>695</v>
+        <v>614</v>
       </c>
       <c r="C175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4411,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>264</v>
+      </c>
+      <c r="C176" t="s">
         <v>265</v>
-      </c>
-      <c r="C176" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4422,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="C177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4433,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>697</v>
+        <v>616</v>
       </c>
       <c r="C178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4444,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>698</v>
+        <v>617</v>
       </c>
       <c r="C179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4455,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>269</v>
+      </c>
+      <c r="C180" t="s">
         <v>270</v>
-      </c>
-      <c r="C180" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4466,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" t="s">
         <v>272</v>
-      </c>
-      <c r="C181" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4477,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="C182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4488,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>700</v>
+        <v>619</v>
       </c>
       <c r="C183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4499,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" t="s">
         <v>276</v>
-      </c>
-      <c r="C184" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4510,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>277</v>
+      </c>
+      <c r="C185" t="s">
         <v>278</v>
-      </c>
-      <c r="C185" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4521,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>701</v>
+        <v>620</v>
       </c>
       <c r="C186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4532,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>702</v>
+        <v>621</v>
       </c>
       <c r="C187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4543,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>281</v>
+      </c>
+      <c r="C188" t="s">
         <v>282</v>
-      </c>
-      <c r="C188" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4554,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>703</v>
+        <v>622</v>
       </c>
       <c r="C189" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4565,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>284</v>
+      </c>
+      <c r="C190" t="s">
         <v>285</v>
-      </c>
-      <c r="C190" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4576,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>286</v>
+      </c>
+      <c r="C191" t="s">
         <v>287</v>
-      </c>
-      <c r="C191" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4587,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>288</v>
+      </c>
+      <c r="C192" t="s">
         <v>289</v>
-      </c>
-      <c r="C192" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4598,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>290</v>
+      </c>
+      <c r="C193" t="s">
         <v>291</v>
-      </c>
-      <c r="C193" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4609,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="C194" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4620,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="C195" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4631,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="C196" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4642,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="C197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4653,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>296</v>
+      </c>
+      <c r="C198" t="s">
         <v>297</v>
-      </c>
-      <c r="C198" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4664,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" t="s">
         <v>299</v>
-      </c>
-      <c r="C199" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4675,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>707</v>
+        <v>626</v>
       </c>
       <c r="C200" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4686,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" t="s">
         <v>302</v>
-      </c>
-      <c r="C201" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4697,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>303</v>
+      </c>
+      <c r="C202" t="s">
         <v>304</v>
-      </c>
-      <c r="C202" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4708,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>306</v>
+        <v>627</v>
       </c>
       <c r="C203" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4719,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C204" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4730,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>310</v>
+        <v>628</v>
       </c>
       <c r="C205" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4741,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C206" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4752,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C207" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4763,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C208" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4774,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>318</v>
+        <v>629</v>
       </c>
       <c r="C209" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4785,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>320</v>
+        <v>630</v>
       </c>
       <c r="C210" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4796,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>322</v>
+        <v>637</v>
       </c>
       <c r="C211" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4807,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C212" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4818,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>326</v>
+        <v>631</v>
       </c>
       <c r="C213" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4829,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C214" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4840,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>330</v>
+        <v>632</v>
       </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4851,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C216" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4862,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>334</v>
+        <v>633</v>
       </c>
       <c r="C217" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +4873,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>638</v>
       </c>
       <c r="C218" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +4884,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C219" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +4895,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>340</v>
+        <v>634</v>
       </c>
       <c r="C220" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +4906,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>342</v>
+        <v>635</v>
       </c>
       <c r="C221" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +4917,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>344</v>
+        <v>636</v>
       </c>
       <c r="C222" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +4928,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>346</v>
+        <v>639</v>
       </c>
       <c r="C223" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,10 +4939,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C224" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,10 +4950,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C225" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,10 +4961,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>352</v>
+        <v>640</v>
       </c>
       <c r="C226" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,10 +4972,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,10 +4983,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C228" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,10 +4994,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C229" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,10 +5005,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>360</v>
+        <v>641</v>
       </c>
       <c r="C230" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,10 +5016,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>362</v>
+        <v>642</v>
       </c>
       <c r="C231" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,10 +5027,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C232" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5035,10 +5038,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>366</v>
+        <v>643</v>
       </c>
       <c r="C233" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5046,10 +5049,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C234" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5057,10 +5060,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C235" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5068,10 +5071,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C236" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5079,10 +5082,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C237" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5090,10 +5093,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C238" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,10 +5104,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C239" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5112,10 +5115,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C240" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5123,10 +5126,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C241" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5134,10 +5137,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>644</v>
       </c>
       <c r="C242" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,10 +5148,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C243" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5156,10 +5159,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>387</v>
+        <v>645</v>
       </c>
       <c r="C244" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5167,10 +5170,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>389</v>
+        <v>646</v>
       </c>
       <c r="C245" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5178,10 +5181,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C246" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,10 +5192,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>393</v>
+        <v>647</v>
       </c>
       <c r="C247" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5200,10 +5203,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>395</v>
+        <v>648</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5211,10 +5214,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>397</v>
+        <v>649</v>
       </c>
       <c r="C249" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5222,10 +5225,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C250" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5233,10 +5236,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C251" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,10 +5247,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C252" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -5255,10 +5258,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>405</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5266,10 +5269,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C254" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5277,10 +5280,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>409</v>
+        <v>651</v>
       </c>
       <c r="C255" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5288,10 +5291,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="C256" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -5299,10 +5302,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="C257" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -5310,10 +5313,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="C258" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,10 +5324,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="C259" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -5332,10 +5335,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>419</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5343,10 +5346,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C261" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -5354,10 +5357,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>423</v>
+        <v>653</v>
       </c>
       <c r="C262" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,10 +5368,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C263" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5376,10 +5379,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="C264" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,10 +5390,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>429</v>
+        <v>654</v>
       </c>
       <c r="C265" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,10 +5401,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C266" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -5409,10 +5412,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C267" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5420,10 +5423,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C268" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5431,10 +5434,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>437</v>
+        <v>655</v>
       </c>
       <c r="C269" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,10 +5445,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>439</v>
+        <v>656</v>
       </c>
       <c r="C270" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5453,10 +5456,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>441</v>
+        <v>657</v>
       </c>
       <c r="C271" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,10 +5467,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="C272" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,10 +5478,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C273" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,10 +5489,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C274" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,10 +5500,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>449</v>
+        <v>658</v>
       </c>
       <c r="C275" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,10 +5511,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="C276" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5519,10 +5522,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="C277" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5530,10 +5533,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
       <c r="C278" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,10 +5544,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="C279" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5555,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="C280" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,10 +5566,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>461</v>
+        <v>661</v>
       </c>
       <c r="C281" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,10 +5577,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>463</v>
+        <v>662</v>
       </c>
       <c r="C282" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,10 +5588,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>465</v>
+        <v>663</v>
       </c>
       <c r="C283" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5596,10 +5599,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="C284" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,10 +5610,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>469</v>
+        <v>664</v>
       </c>
       <c r="C285" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -5618,10 +5621,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C286" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5629,10 +5632,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>473</v>
+        <v>665</v>
       </c>
       <c r="C287" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,10 +5643,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>475</v>
+        <v>666</v>
       </c>
       <c r="C288" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,10 +5654,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="C289" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,10 +5665,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="C290" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,10 +5676,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="C291" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -5684,10 +5687,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="C292" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5695,10 +5698,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="C293" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5706,10 +5709,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="C294" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5717,10 +5720,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>489</v>
+        <v>668</v>
       </c>
       <c r="C295" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,10 +5731,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>491</v>
+        <v>669</v>
       </c>
       <c r="C296" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5739,10 +5742,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="C297" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5750,10 +5753,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="C298" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5761,10 +5764,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>497</v>
+        <v>670</v>
       </c>
       <c r="C299" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -5772,10 +5775,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>360</v>
+        <v>671</v>
       </c>
       <c r="C300" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,10 +5786,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>500</v>
+        <v>672</v>
       </c>
       <c r="C301" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5794,10 +5797,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>502</v>
+        <v>673</v>
       </c>
       <c r="C302" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,10 +5808,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>504</v>
+        <v>674</v>
       </c>
       <c r="C303" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,10 +5819,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="C304" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -5827,10 +5830,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>508</v>
+        <v>675</v>
       </c>
       <c r="C305" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5838,10 +5841,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>510</v>
+        <v>676</v>
       </c>
       <c r="C306" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5849,10 +5852,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="C307" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,10 +5863,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>514</v>
+        <v>677</v>
       </c>
       <c r="C308" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,10 +5874,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="C309" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,10 +5885,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>518</v>
+        <v>678</v>
       </c>
       <c r="C310" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,10 +5896,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>520</v>
+        <v>679</v>
       </c>
       <c r="C311" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,10 +5907,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>522</v>
+        <v>680</v>
       </c>
       <c r="C312" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -5915,10 +5918,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>48</v>
+        <v>544</v>
       </c>
       <c r="C313" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,10 +5929,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="C314" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,10 +5940,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>411</v>
+        <v>681</v>
       </c>
       <c r="C315" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -5948,10 +5951,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>528</v>
+        <v>682</v>
       </c>
       <c r="C316" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,10 +5962,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="C317" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,10 +5973,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="C318" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5981,10 +5984,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>534</v>
+        <v>683</v>
       </c>
       <c r="C319" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,10 +5995,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="C320" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6003,10 +6006,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="C321" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6014,10 +6017,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="C322" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,10 +6028,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>542</v>
+        <v>684</v>
       </c>
       <c r="C323" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6036,10 +6039,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>544</v>
+        <v>685</v>
       </c>
       <c r="C324" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,10 +6050,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>546</v>
+        <v>686</v>
       </c>
       <c r="C325" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,10 +6061,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="C326" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,10 +6072,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>550</v>
+        <v>687</v>
       </c>
       <c r="C327" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6080,10 +6083,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>552</v>
+        <v>688</v>
       </c>
       <c r="C328" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,10 +6094,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="C329" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,10 +6105,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="C330" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -6113,10 +6116,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="C331" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -6124,10 +6127,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>560</v>
+        <v>690</v>
       </c>
       <c r="C332" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6135,10 +6138,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>562</v>
+        <v>691</v>
       </c>
       <c r="C333" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -6146,10 +6149,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>564</v>
+        <v>692</v>
       </c>
       <c r="C334" t="s">
-        <v>565</v>
+        <v>500</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6157,10 +6160,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>566</v>
+        <v>693</v>
       </c>
       <c r="C335" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -6168,10 +6171,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="C336" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,10 +6182,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>570</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -6190,10 +6193,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>572</v>
+        <v>695</v>
       </c>
       <c r="C338" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,10 +6204,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>574</v>
+        <v>696</v>
       </c>
       <c r="C339" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -6212,10 +6215,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>576</v>
+        <v>697</v>
       </c>
       <c r="C340" t="s">
-        <v>577</v>
+        <v>507</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,10 +6226,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>578</v>
+        <v>698</v>
       </c>
       <c r="C341" t="s">
-        <v>579</v>
+        <v>508</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -6234,10 +6237,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>580</v>
+        <v>509</v>
       </c>
       <c r="C342" t="s">
-        <v>581</v>
+        <v>510</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,10 +6248,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>582</v>
+        <v>699</v>
       </c>
       <c r="C343" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -6256,10 +6259,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="C344" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -6267,10 +6270,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
       <c r="C345" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -6278,10 +6281,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="C346" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -6289,10 +6292,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="C347" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -6300,10 +6303,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>592</v>
+        <v>703</v>
       </c>
       <c r="C348" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -6311,10 +6314,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="C349" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6322,10 +6325,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>596</v>
+        <v>704</v>
       </c>
       <c r="C350" t="s">
-        <v>597</v>
+        <v>520</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6333,10 +6336,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>598</v>
+        <v>521</v>
       </c>
       <c r="C351" t="s">
-        <v>599</v>
+        <v>522</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6344,10 +6347,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>600</v>
+        <v>523</v>
       </c>
       <c r="C352" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -6355,10 +6358,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>602</v>
+        <v>705</v>
       </c>
       <c r="C353" t="s">
-        <v>603</v>
+        <v>525</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -6366,10 +6369,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>604</v>
+        <v>706</v>
       </c>
       <c r="C354" t="s">
-        <v>605</v>
+        <v>526</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -6377,10 +6380,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>606</v>
+        <v>707</v>
       </c>
       <c r="C355" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -6388,10 +6391,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
       <c r="C356" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -6399,10 +6402,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="C357" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -6410,10 +6413,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>612</v>
+        <v>708</v>
       </c>
       <c r="C358" t="s">
-        <v>613</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
